--- a/Day 2/추석 뉴스.xlsx
+++ b/Day 2/추석 뉴스.xlsx
@@ -1,34 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wook2\OneDrive\문서\GitHub\Sparta-Coding\Day 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF1292A-4228-47FF-B479-70FEDDDA9D40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2916" yWindow="1572" windowWidth="17268" windowHeight="6216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="추석 뉴스" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="추석 뉴스" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+  <si>
+    <t>'4년차 추석민심' 문대통령 국정지지율 40% 후반대</t>
+  </si>
+  <si>
+    <t>http://yna.kr/AKR20201003028900001?did=1195m</t>
+  </si>
+  <si>
+    <t>연합뉴스</t>
+  </si>
+  <si>
+    <t>추석 연휴 귀성·귀경객 중 확진자 2명 확인</t>
+  </si>
+  <si>
+    <t>http://www.kwnews.co.kr/nview.asp?aid=220100200011</t>
+  </si>
+  <si>
+    <t>강원일보</t>
+  </si>
+  <si>
+    <t>엎치락 뒤치락, 추석 ‘대선’ 민심은 여전히 양강</t>
+  </si>
+  <si>
+    <t>https://www.seoul.co.kr/news/newsView.php?id=20201003500047&amp;wlog_tag3=naver</t>
+  </si>
+  <si>
+    <t>서울신문</t>
+  </si>
+  <si>
+    <t>방역당국 "추석연휴 귀성·귀경객 중 코로나19 확진자 2명 확인"</t>
+  </si>
+  <si>
+    <t>https://imnews.imbc.com/news/2020/society/article/5929047_32633.html</t>
+  </si>
+  <si>
+    <t>MBC</t>
+  </si>
+  <si>
+    <t>이번 추석은 ‘식품·건강용품’이 효자…온라인 쇼핑몰서 판매 증가</t>
+  </si>
+  <si>
+    <t>https://cnbc.sbs.co.kr/article_hub/10000998197?division=NAVER</t>
+  </si>
+  <si>
+    <t>SBS</t>
+  </si>
+  <si>
+    <t>2017년 이후 설·추석 고속도로 통행료 2872억원 면제</t>
+  </si>
+  <si>
+    <t>http://www.busan.com/view/busan/view.php?code=2020100316523257516</t>
+  </si>
+  <si>
+    <t>부산일보</t>
+  </si>
+  <si>
+    <t>김종인 리더십, 추석 지나 어디로 가나</t>
+  </si>
+  <si>
+    <t>http://news.khan.co.kr/kh_news/khan_art_view.html?artid=202010031544001&amp;code=910100</t>
+  </si>
+  <si>
+    <t>경향신문</t>
+  </si>
+  <si>
+    <t>추석 연휴 나흘 동안 부산서 38명 확진...1일 평균 9.5명 감염</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/2020100314112862379?utm_source=naver&amp;utm_medium=search</t>
+  </si>
+  <si>
+    <t>프레시안</t>
+  </si>
+  <si>
+    <t>추석연휴 고향 찾은 2명 코로나19 확진…"추후 더 나올 수 있다"</t>
+  </si>
+  <si>
+    <t>http://www.inews24.com/view/1304023</t>
+  </si>
+  <si>
+    <t>아이뉴스24</t>
+  </si>
+  <si>
+    <t>추석 지나면 청약 시작, 빅히트 공모주 경쟁률 기록 깰까</t>
+  </si>
+  <si>
+    <t>https://www.seoul.co.kr/news/newsView.php?id=20200929500172&amp;wlog_tag3=naver</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +150,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,190 +452,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="52.8984375" customWidth="1"/>
+    <col min="2" max="2" width="71.5" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>'4년차 추석민심' 문대통령 국정지지율 40% 후반대</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>http://yna.kr/AKR20201003028900001?did=1195m</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>추석 연휴 귀성·귀경객 중 확진자 2명 확인</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>http://www.kwnews.co.kr/nview.asp?aid=220100200011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>강원일보</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>엎치락 뒤치락, 추석 ‘대선’ 민심은 여전히 양강</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.seoul.co.kr/news/newsView.php?id=20201003500047&amp;wlog_tag3=naver</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>서울신문</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>방역당국 "추석연휴 귀성·귀경객 중 코로나19 확진자 2명 확인"</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://imnews.imbc.com/news/2020/society/article/5929047_32633.html</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>MBC</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>이번 추석은 ‘식품·건강용품’이 효자…온라인 쇼핑몰서 판매 증가</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://cnbc.sbs.co.kr/article_hub/10000998197?division=NAVER</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SBS</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2017년 이후 설·추석 고속도로 통행료 2872억원 면제</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>http://www.busan.com/view/busan/view.php?code=2020100316523257516</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>부산일보</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>김종인 리더십, 추석 지나 어디로 가나</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>http://news.khan.co.kr/kh_news/khan_art_view.html?artid=202010031544001&amp;code=910100</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>경향신문</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>추석 연휴 나흘 동안 부산서 38명 확진...1일 평균 9.5명 감염</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://www.pressian.com/pages/articles/2020100314112862379?utm_source=naver&amp;utm_medium=search</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>프레시안</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>추석연휴 고향 찾은 2명 코로나19 확진…"추후 더 나올 수 있다"</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>http://www.inews24.com/view/1304023</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>아이뉴스24</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>추석 지나면 청약 시작, 빅히트 공모주 경쟁률 기록 깰까</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://www.seoul.co.kr/news/newsView.php?id=20200929500172&amp;wlog_tag3=naver</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>서울신문</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>